--- a/static/attendance_data.xlsx
+++ b/static/attendance_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,263 +477,327 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>meena</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21332</t>
+          <t>588</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1st Year</t>
+          <t>4th Year</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Check-In</t>
+          <t>Check-Out</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45830</v>
+        <v>45954</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:32:09</t>
+          <t>23:01:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pratiksha </t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2241003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45829</v>
+        <v>45954</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:07:19</t>
+          <t>22:58:57</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pratiksha </t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2241003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45822</v>
+        <v>45868</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07:01:43</t>
+          <t>22:51:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nayana</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45796</v>
+        <v>45868</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:03:34</t>
+          <t>22:41:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prachi</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Check-In</t>
+          <t>Check-Out</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45796</v>
+        <v>45868</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14:00:11</t>
+          <t>22:37:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shubhangi </t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Check-Out</t>
+          <t>Check-In</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45793</v>
+        <v>45868</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:02:10</t>
+          <t>22:36:51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shubhangi </t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Check-In</t>
+          <t>Check-Out</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45793</v>
+        <v>45866</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:00:36</t>
+          <t>21:26:16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dewang Mankar</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2241034</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45793</v>
+        <v>45866</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:09:00</t>
+          <t>21:15:37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dewang Mankar</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2241034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Check-Out</t>
+          <t>Check-In</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45793</v>
+        <v>45866</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:08:05</t>
+          <t>21:12:22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dewang Mankar</t>
+          <t xml:space="preserve">Shubhangi </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2241034</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -744,90 +808,839 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45793</v>
+        <v>45866</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10:04:52</t>
+          <t>21:12:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pallavi</t>
+          <t>Shruti Chaudhari</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45787</v>
+        <v>45866</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:57:35</t>
+          <t>21:06:37</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>prachi</t>
+          <t>Pratiksha</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Check-In</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45786</v>
+        <v>45858</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:28:48</t>
+          <t>14:49:57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Pratiksha</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pratiksha</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23:52:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23:41:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23:41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23:31:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>23:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20:47:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Shruti Chaudhari</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:39:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pratiksha</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4th Year</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>09:58:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>meena</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1st Year</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nayana</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>14:03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>prachi</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Check-In</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>14:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shubhangi </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>11:02:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shubhangi </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>11:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dewang Mankar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2241034</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10:09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dewang Mankar</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2241034</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Check-Out</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dewang Mankar</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2241034</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10:04:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pallavi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prachi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>12:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>prachi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>16:21:39</t>
         </is>
